--- a/biology/Botanique/Tillandsia_arcuans/Tillandsia_arcuans.xlsx
+++ b/biology/Botanique/Tillandsia_arcuans/Tillandsia_arcuans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia arcuans est une espèce de plantes de la famille des Bromeliaceae. L'épithète arcuans, qui signifie « s'arquant », se réfère au port courbé de la tige florale.
 </t>
@@ -511,13 +523,15 @@
           <t>Protologue et type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia arcuans L.B.Sm., in Contr. U.S. Natl. Herb. 29: 436, fig. 41d,e (1951)
-Diagnose originale[1]
+Diagnose originale
 « A T. lajense André, cui affinis, inflorescentia densa, spicis oblongis, longioribus differt. »
 Type
-leg. M.B. &amp; R. Foster, n° 2266, 1946-11-29 ; « perpendicular rocks of El Cañon de Naciento del Diablo, below El Espinal, Department of Nariño, Colombia, altitude 2100 meters »[1] ; Holotypus (1/2) GH (Gray Herbarium) (GH 29401)
+leg. M.B. &amp; R. Foster, n° 2266, 1946-11-29 ; « perpendicular rocks of El Cañon de Naciento del Diablo, below El Espinal, Department of Nariño, Colombia, altitude 2100 meters » ; Holotypus (1/2) GH (Gray Herbarium) (GH 29401)
 leg. M.B. &amp; R. Foster, n° 2266, 1946-11-29 ; Holotypus (2/2) GH (Gray Herbarium) (GH 29402)</t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia arcuans est une plante vivace herbacée, épiphyte[2], rupicole[1], saxicole[2] ou terrestre[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia arcuans est une plante vivace herbacée, épiphyte, rupicole, saxicole ou terrestre.
 </t>
         </is>
       </c>
@@ -579,10 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-L'espèce de rencontre dans la province de Nariño en Colombie[1] et en Équateur[2].
-Habitat
-L'espèce se rencontre sur les parois de canyon[1] entre 2 800 et 3 900 mètres d'altitude[2].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce de rencontre dans la province de Nariño en Colombie et en Équateur.
 </t>
         </is>
       </c>
@@ -608,15 +627,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Taxons infraspécifiques</t>
+          <t>Distribution et habitat</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tillandsia arcuans var. arcuans
-(autonyme)
-Tillandsia arcuans var. naundorffiae Gilmartin
-Tillandsia arcuans var. naundorffiae Gilmartin, in Phytologia 16: 158 (1968), (Type : leg. Naundorff, s.n., 1963-06-26 ; « Ecuador. Quito, Cuna del Señor Quebradas. 2800 m. Cult. J. Marnier-Lapostolle » ; Holotypus US National Herbarium (US 00089118) ; présente en Équateur[2].
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre sur les parois de canyon entre 2 800 et 3 900 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -642,12 +664,87 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tillandsia arcuans var. arcuans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(autonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tillandsia_arcuans</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_arcuans</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tillandsia arcuans var. naundorffiae Gilmartin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia arcuans var. naundorffiae Gilmartin, in Phytologia 16: 158 (1968), (Type : leg. Naundorff, s.n., 1963-06-26 ; « Ecuador. Quito, Cuna del Señor Quebradas. 2800 m. Cult. J. Marnier-Lapostolle » ; Holotypus US National Herbarium (US 00089118) ; présente en Équateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_arcuans</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_arcuans</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La culture de cette espèce est difficile[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La culture de cette espèce est difficile.
 </t>
         </is>
       </c>
